--- a/ArticleManage/main_working_folder/output_folders/Data 141 Activated Carbon Modified with/Data141_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 141 Activated Carbon Modified with/Data141_all_graphs_excel.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 2 CAC  0-1-0-500 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 2 CACuO025  0-1-0-500 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 2 CACuO050  0-1-0-500 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 2 CAN23  0-1-0-500 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 2 CAN26  0-1-0-500 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 2 CAN83  0-1-0-500 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 2 CAN86  0-1-0-500 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 2 CAC  0&amp;1&amp;0&amp;500 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 2 CACuO025  0&amp;1&amp;0&amp;500 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 2 CACuO050  0&amp;1&amp;0&amp;500 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 2 CAN23  0&amp;1&amp;0&amp;500 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 2 CAN26  0&amp;1&amp;0&amp;500 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 2 CAN83  0&amp;1&amp;0&amp;500 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 2 CAN86  0&amp;1&amp;0&amp;500 " sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -180,12 +180,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CAC  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CAC  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CAC  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CAC  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -494,12 +494,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CACuO025  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CACuO025  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CACuO025  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CACuO025  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -808,12 +808,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CACuO050  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CACuO050  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CACuO050  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CACuO050  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1122,12 +1122,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN23  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CAN23  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN23  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CAN23  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1436,12 +1436,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN26  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CAN26  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN26  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CAN26  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1750,12 +1750,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN83  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CAN83  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN83  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CAN83  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2064,12 +2064,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN86  0-1-0-500 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 2 CAN86  0&amp;1&amp;0&amp;500 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 2 CAN86  0-1-0-500 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 2 CAN86  0&amp;1&amp;0&amp;500 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
